--- a/data/transcriptions/transcription_ex3.xlsx
+++ b/data/transcriptions/transcription_ex3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D532399-0931-9641-9E77-811FDAE52879}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34742F11-87D4-784C-92D0-EE954804F5A5}"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="760" windowWidth="17160" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_11_46_25_143" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="107">
   <si>
     <t>Nom.</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Braine l'Alleud</t>
   </si>
   <si>
-    <t>servais</t>
-  </si>
-  <si>
     <t>Nivelles</t>
   </si>
   <si>
@@ -206,12 +203,6 @@
     <t>Louis</t>
   </si>
   <si>
-    <t>Arreté le huit novembre 1919</t>
-  </si>
-  <si>
-    <t>Arreté le neuf novembre 1919 Dimanche</t>
-  </si>
-  <si>
     <t>Mathieu</t>
   </si>
   <si>
@@ -254,9 +245,6 @@
     <t>Dubru</t>
   </si>
   <si>
-    <t>Arreté le dix novembre 1919</t>
-  </si>
-  <si>
     <t>Humels</t>
   </si>
   <si>
@@ -285,9 +273,6 @@
   </si>
   <si>
     <t>Campinaire</t>
-  </si>
-  <si>
-    <t>Arreté le onze novembre 1919</t>
   </si>
   <si>
     <t>dix 9b 1919</t>
@@ -392,6 +377,21 @@
   </si>
   <si>
     <t>23 Dbre 1919</t>
+  </si>
+  <si>
+    <t>Arreté le huit novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Arreté le neuf novembre 1919 Dimanche servais</t>
+  </si>
+  <si>
+    <t>Arreté le dix novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Arreté le onze novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1053,7 +1053,9 @@
       <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="17" t="s">
@@ -1099,23 +1101,23 @@
         <v>411</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I3">
         <v>878</v>
@@ -1127,14 +1129,14 @@
       <c r="M3" s="10"/>
       <c r="N3" s="1"/>
       <c r="O3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="2"/>
@@ -1145,23 +1147,23 @@
         <v>412</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="I4">
         <v>78692</v>
@@ -1173,14 +1175,14 @@
       <c r="M4" s="10"/>
       <c r="N4" s="1"/>
       <c r="O4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="S4">
         <v>203</v>
@@ -1202,7 +1204,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="2"/>
       <c r="R5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="S5">
         <v>206</v>
@@ -1243,7 +1245,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="2"/>
       <c r="R7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="S7">
         <v>209</v>
@@ -1265,7 +1267,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="2"/>
       <c r="R8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="S8">
         <v>225</v>
@@ -1275,26 +1277,26 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="I9">
         <v>1706</v>
@@ -1304,18 +1306,18 @@
       </c>
       <c r="L9" s="2"/>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="S9">
         <v>299</v>
@@ -1326,11 +1328,8 @@
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1346,11 +1345,8 @@
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1368,23 +1364,23 @@
         <v>413</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I12">
         <v>16934</v>
@@ -1395,10 +1391,10 @@
       <c r="L12" s="2"/>
       <c r="N12" s="1"/>
       <c r="O12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="S12" s="1"/>
@@ -1410,23 +1406,23 @@
         <v>414</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I13">
         <v>25891</v>
@@ -1436,17 +1432,17 @@
       </c>
       <c r="L13" s="2"/>
       <c r="N13" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="O13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="S13" s="1">
         <v>59</v>
@@ -1466,7 +1462,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="2"/>
       <c r="R14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1">
         <v>47</v>
@@ -1486,7 +1482,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="2"/>
       <c r="R15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="S15" s="1">
         <v>100</v>
@@ -1499,23 +1495,23 @@
         <v>415</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I16" s="11">
         <v>500</v>
@@ -1530,14 +1526,14 @@
       <c r="L16" s="2"/>
       <c r="N16" s="1"/>
       <c r="O16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="2"/>
@@ -1546,11 +1542,8 @@
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="9"/>
@@ -1568,23 +1561,23 @@
         <v>416</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I18">
         <v>7561</v>
@@ -1599,14 +1592,14 @@
       <c r="L18" s="2"/>
       <c r="N18" s="1"/>
       <c r="O18" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="S18" s="1">
         <v>58</v>
@@ -1620,20 +1613,20 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I19">
         <v>1747</v>
@@ -1644,14 +1637,14 @@
       <c r="L19" s="2"/>
       <c r="N19" s="1"/>
       <c r="O19" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="S19" s="1">
         <v>52</v>
@@ -1661,24 +1654,24 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
         <v>27</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I20">
         <v>22585</v>
@@ -1689,19 +1682,19 @@
       <c r="K20" s="1"/>
       <c r="L20" s="2"/>
       <c r="M20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="2"/>
       <c r="R20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -1709,12 +1702,9 @@
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="1"/>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
       <c r="E21" s="11"/>
       <c r="F21" s="1" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1732,7 +1722,6 @@
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="1"/>
-      <c r="F22" s="1"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="K22" s="1"/>

--- a/data/transcriptions/transcription_ex3.xlsx
+++ b/data/transcriptions/transcription_ex3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34742F11-87D4-784C-92D0-EE954804F5A5}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2855ED98-8A26-B443-BC13-D2E8D87B83AA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>Date du dépot des déclarations</t>
   </si>
   <si>
-    <t>Date du décès ous du judgement d'envoi en possession, en cas d'absence.</t>
-  </si>
-  <si>
     <t>Noms, Prénoms et demeures des parties déclarantes.</t>
   </si>
   <si>
@@ -392,6 +389,9 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>Date du décès ou du judgement d'envoi en possession, en cas d'absence.</t>
   </si>
 </sst>
 </file>
@@ -987,14 +987,14 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>4</v>
@@ -1006,39 +1006,39 @@
       <c r="E1" s="22"/>
       <c r="F1" s="19"/>
       <c r="G1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>7</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="19"/>
       <c r="L1" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N1" s="19"/>
       <c r="O1" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P1" s="19"/>
       <c r="Q1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>18</v>
       </c>
       <c r="S1" s="19"/>
       <c r="T1" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="14" customFormat="1" ht="204" x14ac:dyDescent="0.2">
@@ -1054,46 +1054,46 @@
         <v>2</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="L2" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="O2" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q2" s="21"/>
       <c r="R2" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -1101,23 +1101,23 @@
         <v>411</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="I3">
         <v>878</v>
@@ -1129,14 +1129,14 @@
       <c r="M3" s="10"/>
       <c r="N3" s="1"/>
       <c r="O3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="2"/>
@@ -1147,23 +1147,23 @@
         <v>412</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
       <c r="E4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="I4">
         <v>78692</v>
@@ -1175,14 +1175,14 @@
       <c r="M4" s="10"/>
       <c r="N4" s="1"/>
       <c r="O4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S4">
         <v>203</v>
@@ -1204,7 +1204,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="2"/>
       <c r="R5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S5">
         <v>206</v>
@@ -1245,7 +1245,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="2"/>
       <c r="R7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S7">
         <v>209</v>
@@ -1267,7 +1267,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="2"/>
       <c r="R8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S8">
         <v>225</v>
@@ -1277,26 +1277,26 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="I9">
         <v>1706</v>
@@ -1306,18 +1306,18 @@
       </c>
       <c r="L9" s="2"/>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S9">
         <v>299</v>
@@ -1329,7 +1329,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1346,7 +1346,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1364,23 +1364,23 @@
         <v>413</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="I12">
         <v>16934</v>
@@ -1391,10 +1391,10 @@
       <c r="L12" s="2"/>
       <c r="N12" s="1"/>
       <c r="O12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="S12" s="1"/>
@@ -1406,23 +1406,23 @@
         <v>414</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I13">
         <v>25891</v>
@@ -1432,17 +1432,17 @@
       </c>
       <c r="L13" s="2"/>
       <c r="N13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S13" s="1">
         <v>59</v>
@@ -1462,7 +1462,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="2"/>
       <c r="R14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S14" s="1">
         <v>47</v>
@@ -1482,7 +1482,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="2"/>
       <c r="R15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S15" s="1">
         <v>100</v>
@@ -1495,23 +1495,23 @@
         <v>415</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
         <v>60</v>
-      </c>
-      <c r="E16" t="s">
-        <v>61</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I16" s="11">
         <v>500</v>
@@ -1526,14 +1526,14 @@
       <c r="L16" s="2"/>
       <c r="N16" s="1"/>
       <c r="O16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="2"/>
@@ -1543,7 +1543,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="9"/>
@@ -1561,23 +1561,23 @@
         <v>416</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
         <v>63</v>
       </c>
-      <c r="D18" t="s">
-        <v>64</v>
-      </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="I18">
         <v>7561</v>
@@ -1592,14 +1592,14 @@
       <c r="L18" s="2"/>
       <c r="N18" s="1"/>
       <c r="O18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S18" s="1">
         <v>58</v>
@@ -1613,20 +1613,20 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I19">
         <v>1747</v>
@@ -1637,14 +1637,14 @@
       <c r="L19" s="2"/>
       <c r="N19" s="1"/>
       <c r="O19" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S19" s="1">
         <v>52</v>
@@ -1654,24 +1654,24 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I20">
         <v>22585</v>
@@ -1682,19 +1682,19 @@
       <c r="K20" s="1"/>
       <c r="L20" s="2"/>
       <c r="M20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="2"/>
       <c r="R20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -1704,7 +1704,7 @@
       <c r="B21" s="1"/>
       <c r="E21" s="11"/>
       <c r="F21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>

--- a/data/transcriptions/transcription_ex3.xlsx
+++ b/data/transcriptions/transcription_ex3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2855ED98-8A26-B443-BC13-D2E8D87B83AA}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE252901-6DD8-5F4A-B2C2-EE2BF2B2ACC6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <author>tc={115F52B6-5A4F-8546-9DD1-6E5DCC37F41F}</author>
   </authors>
   <commentList>
-    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{115F52B6-5A4F-8546-9DD1-6E5DCC37F41F}">
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{115F52B6-5A4F-8546-9DD1-6E5DCC37F41F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
   <si>
     <t>Nom.</t>
   </si>
@@ -386,9 +386,6 @@
   </si>
   <si>
     <t>Arreté le onze novembre 1919 servais</t>
-  </si>
-  <si>
-    <t>Note</t>
   </si>
   <si>
     <t>Date du décès ou du judgement d'envoi en possession, en cas d'absence.</t>
@@ -440,7 +437,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -547,30 +544,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -590,14 +567,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -612,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -636,6 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,7 +952,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="J16" dT="2024-06-10T13:15:21.32" personId="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" id="{115F52B6-5A4F-8546-9DD1-6E5DCC37F41F}">
+  <threadedComment ref="I16" dT="2024-06-10T13:15:21.32" personId="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" id="{115F52B6-5A4F-8546-9DD1-6E5DCC37F41F}">
     <text>Looks like 355 but Restant is so vividly written as 144.</text>
   </threadedComment>
 </ThreadedComments>
@@ -984,120 +960,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:20" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="12" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="18" t="s">
+      <c r="M1" s="17"/>
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="20" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="Q1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="13" t="s">
+      <c r="R1" s="17"/>
+      <c r="S1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="T1" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="14" customFormat="1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="15" t="s">
+    <row r="2" spans="1:20" s="12" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="17" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="M2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="17" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="R2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="S2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="T2" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
         <v>411</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1112,38 +1084,37 @@
       <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I3">
+      <c r="H3">
         <v>878</v>
       </c>
-      <c r="K3" s="1">
+      <c r="J3" s="1">
         <v>878</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="1"/>
-      <c r="O3" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="1"/>
+      <c r="N3" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" t="s">
+      <c r="P3" s="2"/>
+      <c r="Q3" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>412</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1155,128 +1126,123 @@
       <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I4">
+      <c r="H4">
         <v>78692</v>
       </c>
-      <c r="K4" s="1">
+      <c r="J4" s="1">
         <v>78692</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="1"/>
-      <c r="O4" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="1"/>
+      <c r="N4" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" t="s">
+      <c r="P4" s="2"/>
+      <c r="Q4" t="s">
         <v>79</v>
       </c>
-      <c r="S4">
+      <c r="R4">
         <v>203</v>
       </c>
+      <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
       <c r="B5" s="1"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" t="s">
         <v>80</v>
       </c>
-      <c r="S5">
+      <c r="R5">
         <v>206</v>
       </c>
+      <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
       <c r="B6" s="1"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="S6">
+      <c r="J6" s="1"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="2"/>
+      <c r="R6">
         <v>207</v>
       </c>
+      <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
       <c r="B7" s="1"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s">
+      <c r="J7" s="1"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s">
         <v>81</v>
       </c>
-      <c r="S7">
+      <c r="R7">
         <v>209</v>
       </c>
+      <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
       <c r="B8" s="1"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" t="s">
         <v>82</v>
       </c>
-      <c r="S8">
+      <c r="R8">
         <v>225</v>
       </c>
+      <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1288,79 +1254,78 @@
       <c r="D9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I9">
+      <c r="H9">
         <v>1706</v>
       </c>
-      <c r="K9" s="1">
+      <c r="J9" s="1">
         <v>1706</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" t="s">
+      <c r="M9" s="1"/>
+      <c r="N9" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" t="s">
+      <c r="P9" s="2"/>
+      <c r="Q9" t="s">
         <v>83</v>
       </c>
-      <c r="S9">
+      <c r="R9">
         <v>299</v>
       </c>
+      <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
       <c r="B10" s="1"/>
-      <c r="F10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="2"/>
-      <c r="N10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="S10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="2"/>
+      <c r="M10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="2"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
       <c r="B11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="2"/>
-      <c r="N11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="S11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="2"/>
+      <c r="M11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="2"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>413</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1375,34 +1340,33 @@
       <c r="E12" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I12">
+      <c r="H12">
         <v>16934</v>
       </c>
-      <c r="K12" s="1">
+      <c r="J12" s="1">
         <v>16934</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="N12" s="1"/>
-      <c r="O12" t="s">
+      <c r="K12" s="2"/>
+      <c r="M12" s="1"/>
+      <c r="N12" t="s">
         <v>99</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q12" s="2"/>
-      <c r="S12" s="1"/>
+      <c r="P12" s="2"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>414</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1417,81 +1381,78 @@
       <c r="E13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I13">
+      <c r="H13">
         <v>25891</v>
       </c>
-      <c r="K13" s="1">
+      <c r="J13" s="1">
         <v>25891</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="N13" s="1" t="s">
+      <c r="K13" s="2"/>
+      <c r="M13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O13" t="s">
+      <c r="N13" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" t="s">
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s">
         <v>88</v>
       </c>
-      <c r="S13" s="1">
+      <c r="R13" s="1">
         <v>59</v>
       </c>
+      <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
       <c r="B14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="2"/>
-      <c r="N14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" t="s">
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+      <c r="M14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s">
         <v>90</v>
       </c>
-      <c r="S14" s="1">
+      <c r="R14" s="1">
         <v>47</v>
       </c>
+      <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
       <c r="B15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="2"/>
-      <c r="N15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+      <c r="M15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s">
         <v>89</v>
       </c>
-      <c r="S15" s="1">
+      <c r="R15" s="1">
         <v>100</v>
       </c>
+      <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>415</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1506,58 +1467,57 @@
       <c r="E16" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="G16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="11">
+      <c r="H16" s="9">
         <v>500</v>
       </c>
-      <c r="J16">
+      <c r="I16">
         <v>356</v>
       </c>
-      <c r="K16" s="1">
-        <f>I16-J16</f>
+      <c r="J16" s="1">
+        <f>H16-I16</f>
         <v>144</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="N16" s="1"/>
-      <c r="O16" t="s">
+      <c r="K16" s="2"/>
+      <c r="M16" s="1"/>
+      <c r="N16" t="s">
         <v>85</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" t="s">
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s">
         <v>31</v>
       </c>
-      <c r="S16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
       <c r="B17" s="1"/>
-      <c r="F17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="9"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="2"/>
-      <c r="N17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="2"/>
-      <c r="S17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="7"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+      <c r="M17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="2"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>416</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1572,88 +1532,86 @@
       <c r="E18" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="H18">
+        <v>7561</v>
+      </c>
       <c r="I18">
-        <v>7561</v>
-      </c>
-      <c r="J18">
         <v>566</v>
       </c>
-      <c r="K18" s="1">
-        <f>I18-J18</f>
+      <c r="J18" s="1">
+        <f>H18-I18</f>
         <v>6995</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="N18" s="1"/>
-      <c r="O18" t="s">
+      <c r="K18" s="2"/>
+      <c r="M18" s="1"/>
+      <c r="N18" t="s">
         <v>100</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" t="s">
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s">
         <v>95</v>
       </c>
-      <c r="S18" s="1">
+      <c r="R18" s="1">
         <v>58</v>
       </c>
+      <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>417</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="G19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I19">
+      <c r="H19">
         <v>1747</v>
       </c>
-      <c r="K19" s="1">
+      <c r="J19" s="1">
         <v>1747</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="N19" s="1"/>
-      <c r="O19" t="s">
+      <c r="K19" s="2"/>
+      <c r="M19" s="1"/>
+      <c r="N19" t="s">
         <v>93</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" t="s">
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s">
         <v>96</v>
       </c>
-      <c r="S19" s="1">
+      <c r="R19" s="1">
         <v>52</v>
       </c>
+      <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="1"/>
@@ -1666,136 +1624,133 @@
       <c r="E20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I20">
+      <c r="H20">
         <v>22585</v>
       </c>
-      <c r="J20" s="10">
+      <c r="I20" s="8">
         <v>23850</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="2"/>
-      <c r="M20" t="s">
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+      <c r="L20" t="s">
         <v>91</v>
       </c>
-      <c r="N20" s="1"/>
-      <c r="O20" t="s">
+      <c r="M20" s="1"/>
+      <c r="N20" t="s">
         <v>30</v>
       </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" t="s">
+      <c r="O20" s="1"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s">
         <v>30</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
       <c r="B21" s="1"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="2"/>
-      <c r="N21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="2"/>
-      <c r="S21" s="1"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+      <c r="M21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="2"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
       <c r="B22" s="1"/>
+      <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="2"/>
-      <c r="N22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="2"/>
-      <c r="S22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="2"/>
+      <c r="M22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="2"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
       <c r="B23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="H23" s="2"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="2"/>
-      <c r="N23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="2"/>
-      <c r="S23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="2"/>
+      <c r="M23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="2"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="2"/>
-      <c r="N24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="2"/>
-      <c r="S24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="2"/>
+      <c r="M24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="2"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="6"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="3"/>
       <c r="P25" s="5"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="6"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="3"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
+      <c r="T25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/data/transcriptions/transcription_ex3.xlsx
+++ b/data/transcriptions/transcription_ex3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE252901-6DD8-5F4A-B2C2-EE2BF2B2ACC6}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{480814A3-1F00-7940-B1D5-6B419CFA7FD6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -35,24 +35,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={115F52B6-5A4F-8546-9DD1-6E5DCC37F41F}</author>
-  </authors>
-  <commentList>
-    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{115F52B6-5A4F-8546-9DD1-6E5DCC37F41F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Looks like 355 but Restant is so vividly written as 144.</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
   <si>
@@ -167,9 +149,6 @@
     <t>20 7b 1919</t>
   </si>
   <si>
-    <t>Lejeune Here</t>
-  </si>
-  <si>
     <t>Chabeau</t>
   </si>
   <si>
@@ -218,9 +197,6 @@
     <t>Adéline</t>
   </si>
   <si>
-    <t>Caminiau</t>
-  </si>
-  <si>
     <t>Delferière Laure &amp; autre</t>
   </si>
   <si>
@@ -324,12 +300,62 @@
   </si>
   <si>
     <t>17 d.</t>
+  </si>
+  <si>
+    <t>361/ 1919</t>
+  </si>
+  <si>
+    <t>12 mars 1920</t>
+  </si>
+  <si>
+    <t>23 d</t>
+  </si>
+  <si>
+    <t>27 d</t>
+  </si>
+  <si>
+    <t>18 mars 1919</t>
+  </si>
+  <si>
+    <t>5 mars 1920</t>
+  </si>
+  <si>
+    <t>Desquesne Eugénie</t>
+  </si>
+  <si>
+    <t>20 Db 1919</t>
+  </si>
+  <si>
+    <t>22 Db 1919</t>
+  </si>
+  <si>
+    <t>23 Dbre 1919</t>
+  </si>
+  <si>
+    <t>Arreté le huit novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Arreté le neuf novembre 1919 Dimanche servais</t>
+  </si>
+  <si>
+    <t>Arreté le dix novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Arreté le onze novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Date du décès ou du judgement d'envoi en possession, en cas d'absence.</t>
+  </si>
+  <si>
+    <t>Taminiau</t>
+  </si>
+  <si>
+    <t>Lejeune Maré</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
       <t xml:space="preserve">3 </t>
@@ -337,58 +363,12 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>mai 1920</t>
     </r>
-  </si>
-  <si>
-    <t>361/ 1919</t>
-  </si>
-  <si>
-    <t>12 mars 1920</t>
-  </si>
-  <si>
-    <t>23 d</t>
-  </si>
-  <si>
-    <t>27 d</t>
-  </si>
-  <si>
-    <t>18 mars 1919</t>
-  </si>
-  <si>
-    <t>5 mars 1920</t>
-  </si>
-  <si>
-    <t>Desquesne Eugénie</t>
-  </si>
-  <si>
-    <t>20 Db 1919</t>
-  </si>
-  <si>
-    <t>22 Db 1919</t>
-  </si>
-  <si>
-    <t>23 Dbre 1919</t>
-  </si>
-  <si>
-    <t>Arreté le huit novembre 1919 servais</t>
-  </si>
-  <si>
-    <t>Arreté le neuf novembre 1919 Dimanche servais</t>
-  </si>
-  <si>
-    <t>Arreté le dix novembre 1919 servais</t>
-  </si>
-  <si>
-    <t>Arreté le onze novembre 1919 servais</t>
-  </si>
-  <si>
-    <t>Date du décès ou du judgement d'envoi en possession, en cas d'absence.</t>
   </si>
 </sst>
 </file>
@@ -419,14 +399,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow (Body)"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -567,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -577,7 +556,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -596,6 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -611,7 +591,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,9 +612,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Seorin Kim" id="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" userId="S::Seorin.Kim@vub.be::42ebef16-cc60-4587-b1cb-2455d695e9ba" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -950,65 +930,57 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I16" dT="2024-06-10T13:15:21.32" personId="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" id="{115F52B6-5A4F-8546-9DD1-6E5DCC37F41F}">
-    <text>Looks like 355 but Restant is so vividly written as 144.</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="18" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="17"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="18"/>
       <c r="K1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="16" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="18" t="s">
+      <c r="O1" s="18"/>
+      <c r="P1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="17"/>
+      <c r="R1" s="18"/>
       <c r="S1" s="11" t="s">
         <v>19</v>
       </c>
@@ -1017,8 +989,8 @@
       </c>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1028,8 +1000,8 @@
       <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="15" t="s">
         <v>7</v>
       </c>
@@ -1054,7 +1026,7 @@
       <c r="O2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="19"/>
+      <c r="P2" s="20"/>
       <c r="Q2" s="15" t="s">
         <v>13</v>
       </c>
@@ -1069,11 +1041,11 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
+      <c r="A3" s="16">
         <v>411</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -1088,7 +1060,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="H3">
         <v>878</v>
@@ -1100,10 +1072,10 @@
       <c r="L3" s="8"/>
       <c r="M3" s="1"/>
       <c r="N3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s">
@@ -1121,19 +1093,19 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
         <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="H4">
         <v>78692</v>
@@ -1145,14 +1117,14 @@
       <c r="L4" s="8"/>
       <c r="M4" s="1"/>
       <c r="N4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="22" t="s">
         <v>77</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s">
-        <v>79</v>
       </c>
       <c r="R4">
         <v>203</v>
@@ -1173,7 +1145,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="2"/>
       <c r="Q5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R5">
         <v>206</v>
@@ -1212,7 +1184,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="2"/>
       <c r="Q7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R7">
         <v>209</v>
@@ -1233,7 +1205,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="2"/>
       <c r="Q8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R8">
         <v>225</v>
@@ -1243,25 +1215,25 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="H9">
         <v>1706</v>
@@ -1271,7 +1243,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" t="s">
@@ -1282,7 +1254,7 @@
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R9">
         <v>299</v>
@@ -1294,7 +1266,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1311,7 +1283,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1329,22 +1301,22 @@
         <v>413</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>49</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="H12">
         <v>16934</v>
@@ -1355,10 +1327,10 @@
       <c r="K12" s="2"/>
       <c r="M12" s="1"/>
       <c r="N12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P12" s="2"/>
       <c r="R12" s="1"/>
@@ -1373,19 +1345,19 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H13">
         <v>25891</v>
@@ -1395,17 +1367,17 @@
       </c>
       <c r="K13" s="2"/>
       <c r="M13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R13" s="1">
         <v>59</v>
@@ -1423,8 +1395,8 @@
       <c r="M14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="2"/>
-      <c r="Q14" t="s">
-        <v>90</v>
+      <c r="Q14" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="R14" s="1">
         <v>47</v>
@@ -1443,7 +1415,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="2"/>
       <c r="Q15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R15" s="1">
         <v>100</v>
@@ -1459,37 +1431,36 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H16" s="9">
         <v>500</v>
       </c>
       <c r="I16">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J16" s="1">
-        <f>H16-I16</f>
         <v>144</v>
       </c>
       <c r="K16" s="2"/>
       <c r="M16" s="1"/>
       <c r="N16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s">
@@ -1503,7 +1474,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="7"/>
@@ -1521,22 +1492,22 @@
         <v>416</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H18">
         <v>7561</v>
@@ -1551,14 +1522,14 @@
       <c r="K18" s="2"/>
       <c r="M18" s="1"/>
       <c r="N18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R18" s="1">
         <v>58</v>
@@ -1572,19 +1543,19 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H19">
         <v>1747</v>
@@ -1595,14 +1566,14 @@
       <c r="K19" s="2"/>
       <c r="M19" s="1"/>
       <c r="N19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="R19" s="1">
         <v>52</v>
@@ -1612,23 +1583,23 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H20">
         <v>22585</v>
@@ -1639,7 +1610,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
       <c r="L20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" t="s">
@@ -1660,7 +1631,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="2"/>
@@ -1753,6 +1724,5 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/transcriptions/transcription_ex3.xlsx
+++ b/data/transcriptions/transcription_ex3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{480814A3-1F00-7940-B1D5-6B419CFA7FD6}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D56BF4F9-F0B1-0E46-8546-AB02B7AD95D0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -332,18 +332,6 @@
     <t>23 Dbre 1919</t>
   </si>
   <si>
-    <t>Arreté le huit novembre 1919 servais</t>
-  </si>
-  <si>
-    <t>Arreté le neuf novembre 1919 Dimanche servais</t>
-  </si>
-  <si>
-    <t>Arreté le dix novembre 1919 servais</t>
-  </si>
-  <si>
-    <t>Arreté le onze novembre 1919 servais</t>
-  </si>
-  <si>
     <t>Date du décès ou du judgement d'envoi en possession, en cas d'absence.</t>
   </si>
   <si>
@@ -369,6 +357,18 @@
       </rPr>
       <t>mai 1920</t>
     </r>
+  </si>
+  <si>
+    <t>Arrêté le huit novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le neuf novembre 1919 Dimanche servais</t>
+  </si>
+  <si>
+    <t>Arrêté le dix novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le onze novembre 1919 servais</t>
   </si>
 </sst>
 </file>
@@ -576,6 +576,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -590,9 +593,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -934,53 +934,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="18"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="19"/>
       <c r="K1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="17" t="s">
+      <c r="M1" s="19"/>
+      <c r="N1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="19" t="s">
+      <c r="O1" s="19"/>
+      <c r="P1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="18"/>
+      <c r="R1" s="19"/>
       <c r="S1" s="11" t="s">
         <v>19</v>
       </c>
@@ -989,8 +989,8 @@
       </c>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1000,8 +1000,8 @@
       <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="15" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="O2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="20"/>
+      <c r="P2" s="21"/>
       <c r="Q2" s="15" t="s">
         <v>13</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <v>878</v>
@@ -1123,7 +1123,7 @@
         <v>76</v>
       </c>
       <c r="P4" s="2"/>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="17" t="s">
         <v>77</v>
       </c>
       <c r="R4">
@@ -1266,7 +1266,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1283,7 +1283,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1345,7 +1345,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
@@ -1396,7 +1396,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="R14" s="1">
         <v>47</v>
@@ -1474,7 +1474,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="7"/>
@@ -1631,7 +1631,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="2"/>

--- a/data/transcriptions/transcription_ex3.xlsx
+++ b/data/transcriptions/transcription_ex3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julien\OneDrive\Documents\Github\img-analysis_seorin_project\data\transcriptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serenekim/Desktop/PhD/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE08EB6-E736-40BD-85C6-61B7670DC9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18594BD-E202-2944-A384-827842D1E7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_11_46_25_143" sheetId="1" r:id="rId1"/>
@@ -38,24 +38,15 @@
     <t>N' d'ordre</t>
   </si>
   <si>
-    <t>Date du dépot des déclarations</t>
-  </si>
-  <si>
     <t>Désignation des personnes décédées ou absentes.</t>
   </si>
   <si>
-    <t>Date du décès ou du judgement d'envoi en possession, en cas d'absence.</t>
-  </si>
-  <si>
     <t>Noms, Prénoms et demeures des parties déclarantes.</t>
   </si>
   <si>
     <t>Droits de succession en ligne collatérale et de mutation en ligne directe.</t>
   </si>
   <si>
-    <t>Droit de mutation par déces</t>
-  </si>
-  <si>
     <t>Numéros des déclarations</t>
   </si>
   <si>
@@ -113,9 +104,6 @@
     <t>Numéros de la consignation au sommier n'30</t>
   </si>
   <si>
-    <t>(les déclarations qui figurent à l'état n'413 doivent être émargées en conséquence, dans la présnete colonne.)</t>
-  </si>
-  <si>
     <t>huit 9b 1919</t>
   </si>
   <si>
@@ -336,13 +324,25 @@
   </si>
   <si>
     <t>Arrêté le onze novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Date du dépôt des déclarations</t>
+  </si>
+  <si>
+    <t>Date du décès ous du judgement d'envoi en possession, en cas d'absence.</t>
+  </si>
+  <si>
+    <t>Droit de mutation par décès</t>
+  </si>
+  <si>
+    <t>(les déclarations qui figurent à l'état n'413 doivent être émargées en conséquence, dans la présente colonne.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +374,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -383,7 +390,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -430,21 +437,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -511,110 +503,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,619 +898,619 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" activeCellId="1" sqref="A11:XFD11 A10:XFD10"/>
+      <selection activeCell="C1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:20" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="28" t="s">
+      <c r="H1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="M1" s="21"/>
+      <c r="N1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="Q1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="30" t="s">
+      <c r="R1" s="21"/>
+      <c r="S1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="28" t="s">
+      <c r="T1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="30" t="s">
+    </row>
+    <row r="2" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="3" t="s">
+      <c r="D2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="E2" s="28" t="s">
         <v>12</v>
       </c>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="3" t="s">
+    <row r="3" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>411</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="7" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="E3" t="s">
         <v>26</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="4">
+        <v>878</v>
+      </c>
+      <c r="J3" s="6">
+        <v>878</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="2"/>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="8"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
-    <row r="3" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>411</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="11" t="s">
+    <row r="4" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>412</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="4">
+        <v>78692</v>
+      </c>
+      <c r="J4" s="6">
+        <v>78692</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="2"/>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="4">
+        <v>203</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1706</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1706</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="4">
+        <v>299</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="3"/>
+      <c r="M6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="3"/>
+      <c r="M7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>413</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="4">
+        <v>16934</v>
+      </c>
+      <c r="J8" s="6">
+        <v>16934</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="M8" s="2"/>
+      <c r="N8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>414</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="4">
+        <v>25891</v>
+      </c>
+      <c r="J9" s="6">
+        <v>25891</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="M9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R9" s="6">
+        <v>59</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>415</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="14">
+        <v>500</v>
+      </c>
+      <c r="I10" s="4">
+        <v>355</v>
+      </c>
+      <c r="J10" s="6">
+        <v>144</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="M10" s="2"/>
+      <c r="N10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="12">
-        <v>878</v>
-      </c>
-      <c r="J3" s="14">
-        <v>878</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="10"/>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="16"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
     </row>
-    <row r="4" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>412</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="12">
-        <v>78692</v>
-      </c>
-      <c r="J4" s="14">
-        <v>78692</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="10"/>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="12">
-        <v>203</v>
-      </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="15"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="3"/>
+      <c r="M11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="3"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
     </row>
-    <row r="5" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="12">
-        <v>1706</v>
-      </c>
-      <c r="J5" s="14">
-        <v>1706</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="10"/>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" t="s">
-        <v>54</v>
-      </c>
-      <c r="R5" s="12">
-        <v>299</v>
-      </c>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-    </row>
-    <row r="6" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="11"/>
-      <c r="M6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="11"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-    </row>
-    <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="11"/>
-      <c r="M7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="11"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-    </row>
-    <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>413</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="12">
-        <v>16934</v>
-      </c>
-      <c r="J8" s="14">
-        <v>16934</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="M8" s="10"/>
-      <c r="N8" t="s">
-        <v>63</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" s="11"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-    </row>
-    <row r="9" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>414</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="12">
-        <v>25891</v>
-      </c>
-      <c r="J9" s="14">
-        <v>25891</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="M9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="N9" t="s">
-        <v>70</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" t="s">
-        <v>72</v>
-      </c>
-      <c r="R9" s="14">
-        <v>59</v>
-      </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
-        <v>415</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="12" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>416</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="C12" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="D12" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="22">
-        <v>500</v>
-      </c>
-      <c r="I10" s="12">
-        <v>355</v>
-      </c>
-      <c r="J10" s="14">
-        <v>144</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="M10" s="10"/>
-      <c r="N10" t="s">
-        <v>70</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" t="s">
-        <v>35</v>
-      </c>
-      <c r="R10" s="16"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
+      <c r="E12" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="23"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="11"/>
-      <c r="M11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="11"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-    </row>
-    <row r="12" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>416</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="F12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="12">
+      <c r="H12" s="4">
         <v>7561</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="4">
         <v>566</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="6">
         <f>H12-I12</f>
         <v>6995</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="M12" s="10"/>
+      <c r="K12" s="3"/>
+      <c r="M12" s="2"/>
       <c r="N12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" t="s">
+        <v>83</v>
+      </c>
+      <c r="R12" s="6">
+        <v>58</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>417</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="G13" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="11"/>
-      <c r="Q12" t="s">
+      <c r="H13" s="4">
+        <v>1747</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1747</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="M13" s="2"/>
+      <c r="N13" t="s">
         <v>87</v>
       </c>
-      <c r="R12" s="14">
-        <v>58</v>
-      </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
+      <c r="O13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" t="s">
+        <v>89</v>
+      </c>
+      <c r="R13" s="6">
+        <v>52</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
     </row>
-    <row r="13" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
-        <v>417</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="23" t="s">
+    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="12">
-        <v>1747</v>
-      </c>
-      <c r="J13" s="14">
-        <v>1747</v>
-      </c>
-      <c r="K13" s="11"/>
-      <c r="M13" s="10"/>
-      <c r="N13" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" t="s">
         <v>91</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="D14" t="s">
         <v>92</v>
       </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" t="s">
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="R13" s="14">
-        <v>52</v>
-      </c>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
+      <c r="G14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="4">
+        <v>22585</v>
+      </c>
+      <c r="I14" s="16">
+        <v>23850</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="3"/>
+      <c r="L14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
     </row>
-    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="12">
-        <v>22585</v>
-      </c>
-      <c r="I14" s="24">
-        <v>23850</v>
-      </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="11"/>
-      <c r="L14" t="s">
-        <v>99</v>
-      </c>
-      <c r="M14" s="10"/>
-      <c r="N14" t="s">
-        <v>53</v>
-      </c>
-      <c r="O14" s="10"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" t="s">
-        <v>53</v>
-      </c>
-      <c r="R14" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-    </row>
-    <row r="15" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="11"/>
-      <c r="M15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="11"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="3"/>
+      <c r="M15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="3"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
